--- a/SMART-3Seq-HT_barcodes.xlsx
+++ b/SMART-3Seq-HT_barcodes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmaier/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBB2CA5-76C1-1642-892F-72EB44BBF42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD0414-6B1D-0E4A-8725-A4CD019FCB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{0C3D2805-5B80-5A47-96A2-CD2FD09183B4}"/>
+    <workbookView xWindow="11700" yWindow="640" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{0C3D2805-5B80-5A47-96A2-CD2FD09183B4}"/>
   </bookViews>
   <sheets>
     <sheet name="oligo-dT" sheetId="1" r:id="rId1"/>
     <sheet name="TSO" sheetId="2" r:id="rId2"/>
+    <sheet name="P5-PCR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="308">
   <si>
     <t>Full sequence</t>
   </si>
@@ -918,6 +919,48 @@
   </si>
   <si>
     <t>Reverse Complement Barcode for Illumina Sample Sheet</t>
+  </si>
+  <si>
+    <t>oNM1864_PCR_P5-index#1_AGCGCTAG</t>
+  </si>
+  <si>
+    <t>oNM1865_PCR_P5-index#2_GATATCGA</t>
+  </si>
+  <si>
+    <t>oNM1866_PCR_P5-index#3_CGCAGACG</t>
+  </si>
+  <si>
+    <t>oNM1867_PCR_P5-index#4_TATGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCGCTAGACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATATCGAACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGCAGACGACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTATGAGTAACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number </t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>AGCGCTAG</t>
+  </si>
+  <si>
+    <t>GATATCGA</t>
+  </si>
+  <si>
+    <t>CGCAGACG</t>
+  </si>
+  <si>
+    <t>TATGAGTA</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2652B671-7AAD-C54E-84EC-815B9D6A02F9}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -2737,4 +2780,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9025E37F-2619-EC44-A3B1-FAEB45BFFE59}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SMART-3Seq-HT_barcodes.xlsx
+++ b/SMART-3Seq-HT_barcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmaier/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmaier/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD0414-6B1D-0E4A-8725-A4CD019FCB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB059EF2-973D-AA4D-BF9F-37DD09C544D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="640" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{0C3D2805-5B80-5A47-96A2-CD2FD09183B4}"/>
+    <workbookView xWindow="38480" yWindow="-3920" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{0C3D2805-5B80-5A47-96A2-CD2FD09183B4}"/>
   </bookViews>
   <sheets>
     <sheet name="oligo-dT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="368">
   <si>
     <t>Full sequence</t>
   </si>
@@ -961,6 +961,186 @@
   </si>
   <si>
     <t>TATGAGTA</t>
+  </si>
+  <si>
+    <t>oNM1874_PCR_P5-index#5_AGGTGCGT</t>
+  </si>
+  <si>
+    <t>oNM1875_PCR_P5-index#6_GAACATAC</t>
+  </si>
+  <si>
+    <t>oNM1876_PCR_P5-index#7_ACATAGCG</t>
+  </si>
+  <si>
+    <t>oNM1877_PCR_P5-index#8_GTGCGATA</t>
+  </si>
+  <si>
+    <t>oNM1878_PCR_P5-index#9_CCAACAGA</t>
+  </si>
+  <si>
+    <t>oNM1879_PCR_P5-index#10_TTGGTGAG</t>
+  </si>
+  <si>
+    <t>oNM1880_PCR_P5-index#11_CGCGGTTC</t>
+  </si>
+  <si>
+    <t>oNM1881_PCR_P5-index#12_TATAACCT</t>
+  </si>
+  <si>
+    <t>oNM1882_PCR_P5-index#13_AAGGATGA</t>
+  </si>
+  <si>
+    <t>oNM1883_PCR_P5-index#14_GGAAGCAG</t>
+  </si>
+  <si>
+    <t>oNM1884_PCR_P5-index#15_TGACGAAT</t>
+  </si>
+  <si>
+    <t>oNM1885_PCR_P5-index#16_CAGTAGGC</t>
+  </si>
+  <si>
+    <t>oNM1886_PCR_P5-index#17_ATATTCAC</t>
+  </si>
+  <si>
+    <t>oNM1887_PCR_P5-index#18_GCGCCTGT</t>
+  </si>
+  <si>
+    <t>oNM1888_PCR_P5-index#19_ACTCTATG</t>
+  </si>
+  <si>
+    <t>oNM1889_PCR_P5-index#20_GTCTCGCA</t>
+  </si>
+  <si>
+    <t>oNM1890_PCR_P5-index#21_AAGACGTC</t>
+  </si>
+  <si>
+    <t>oNM1891_PCR_P5-index#22_GGAGTACT</t>
+  </si>
+  <si>
+    <t>oNM1892_PCR_P5-index#23_ACCGGCCA</t>
+  </si>
+  <si>
+    <t>oNM1893_PCR_P5-index#24_GTTAATTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGCGTACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACATACACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATAGCGACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGCGATAACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAACAGAACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTGAGACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGCGGTTCACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTATAACCTACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGATGAACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGCAGACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACGAATACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTAGGCACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATATTCACACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCGCCTGTACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTATGACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCGCAACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACGTCACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGTACTACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCGGCCAACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTAATTGACACTCTTTCCCTACACGACGCTCTTCCGAT*C</t>
+  </si>
+  <si>
+    <t>AGGTGCGT</t>
+  </si>
+  <si>
+    <t>GAACATAC</t>
+  </si>
+  <si>
+    <t>ACATAGCG</t>
+  </si>
+  <si>
+    <t>GTGCGATA</t>
+  </si>
+  <si>
+    <t>TTGGTGAG</t>
+  </si>
+  <si>
+    <t>CGCGGTTC</t>
+  </si>
+  <si>
+    <t>TATAACCT</t>
+  </si>
+  <si>
+    <t>AAGGATGA</t>
+  </si>
+  <si>
+    <t>GGAAGCAG</t>
+  </si>
+  <si>
+    <t>TGACGAAT</t>
+  </si>
+  <si>
+    <t>CAGTAGGC</t>
+  </si>
+  <si>
+    <t>ATATTCAC</t>
+  </si>
+  <si>
+    <t>GCGCCTGT</t>
+  </si>
+  <si>
+    <t>ACTCTATG</t>
+  </si>
+  <si>
+    <t>GTCTCGCA</t>
+  </si>
+  <si>
+    <t>AAGACGTC</t>
+  </si>
+  <si>
+    <t>GGAGTACT</t>
+  </si>
+  <si>
+    <t>ACCGGCCA</t>
+  </si>
+  <si>
+    <t>GTTAATTG</t>
+  </si>
+  <si>
+    <t>CCAACAGA</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1529,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2206,7 +2386,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2784,16 +2964,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9025E37F-2619-EC44-A3B1-FAEB45BFFE59}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2867,6 +3047,286 @@
         <v>301</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D25" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
